--- a/Tiendas M3.xlsx
+++ b/Tiendas M3.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Codigos\PropuestaInventarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Codigos\PropuestaInventarios_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B8155-FEC7-4A26-BAAB-546B14CBA84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4D25FD-4896-478C-AC39-5D9F53ED0FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8B7064AC-88E8-4F2D-9BFB-CD51240F99FF}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15720" xr2:uid="{8B7064AC-88E8-4F2D-9BFB-CD51240F99FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Stores" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stores!$A$1:$H$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stores!$A$1:$H$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="149">
   <si>
     <t>Supervisor</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Tienda</t>
   </si>
   <si>
-    <t>X17</t>
-  </si>
-  <si>
     <t>X33</t>
   </si>
   <si>
@@ -194,27 +191,15 @@
     <t>X25</t>
   </si>
   <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Acapulco</t>
-  </si>
-  <si>
     <t>Playa</t>
   </si>
   <si>
     <t>NonComp</t>
   </si>
   <si>
-    <t>Cerrada</t>
-  </si>
-  <si>
     <t>FORANEA</t>
   </si>
   <si>
-    <t>SM Acapulco</t>
-  </si>
-  <si>
     <t>Veracruz</t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t>Abierta</t>
   </si>
   <si>
-    <t>SM Andamar</t>
-  </si>
-  <si>
     <t>Jalisco</t>
   </si>
   <si>
@@ -236,9 +218,6 @@
     <t>Occidente</t>
   </si>
   <si>
-    <t>SM Andares</t>
-  </si>
-  <si>
     <t>Ciudad de México</t>
   </si>
   <si>
@@ -248,18 +227,9 @@
     <t>LOCAL</t>
   </si>
   <si>
-    <t>SM Antara</t>
-  </si>
-  <si>
     <t>Puerto Vallarta</t>
   </si>
   <si>
-    <t>SM La Isla Vallarta</t>
-  </si>
-  <si>
-    <t>SM Artz Pedregal</t>
-  </si>
-  <si>
     <t>Sinaloa</t>
   </si>
   <si>
@@ -269,9 +239,6 @@
     <t>Noroeste</t>
   </si>
   <si>
-    <t>SM Culiacan</t>
-  </si>
-  <si>
     <t>Nuevo León</t>
   </si>
   <si>
@@ -281,84 +248,36 @@
     <t>Noreste</t>
   </si>
   <si>
-    <t>SM Fashion Drive Mty</t>
-  </si>
-  <si>
-    <t>SM G Insurgentes</t>
-  </si>
-  <si>
-    <t>SM Galerias Gdl</t>
-  </si>
-  <si>
     <t>Mazatlán</t>
   </si>
   <si>
     <t>Oeste</t>
   </si>
   <si>
-    <t>SM Galerias Mazatlan</t>
-  </si>
-  <si>
-    <t>SM Galerias Monterrey</t>
-  </si>
-  <si>
-    <t>SM Galerias Santa Anita</t>
-  </si>
-  <si>
     <t>Yucatán</t>
   </si>
   <si>
     <t>Mérida</t>
   </si>
   <si>
-    <t>SM Harbor Merida</t>
-  </si>
-  <si>
     <t>Huixquilucan</t>
   </si>
   <si>
-    <t>SM Interlomas</t>
-  </si>
-  <si>
-    <t>SM La Perla</t>
-  </si>
-  <si>
     <t>México</t>
   </si>
   <si>
     <t>Lerma</t>
   </si>
   <si>
-    <t>SM Outlet Lerma</t>
-  </si>
-  <si>
     <t>Metepec</t>
   </si>
   <si>
-    <t>SM Metepec</t>
-  </si>
-  <si>
-    <t>SM Midtown Gdl</t>
-  </si>
-  <si>
-    <t>SM Mitikah</t>
-  </si>
-  <si>
-    <t>SM Oasis</t>
-  </si>
-  <si>
-    <t>SM Parque Delta</t>
-  </si>
-  <si>
     <t>Puebla</t>
   </si>
   <si>
     <t>Oriente</t>
   </si>
   <si>
-    <t>SM Parque Puebla</t>
-  </si>
-  <si>
     <t>Querétaro</t>
   </si>
   <si>
@@ -374,60 +293,21 @@
     <t>Norte</t>
   </si>
   <si>
-    <t>SM Peninsula Tijuana</t>
-  </si>
-  <si>
-    <t>SM Perisur</t>
-  </si>
-  <si>
     <t>Quintana Roo</t>
   </si>
   <si>
     <t>Playa del Carmen</t>
   </si>
   <si>
-    <t>SM Playa del Carmen</t>
-  </si>
-  <si>
-    <t>SM Puebla</t>
-  </si>
-  <si>
     <t>Cancún</t>
   </si>
   <si>
-    <t>SM Puerto Cancun</t>
-  </si>
-  <si>
     <t>Naucalpan</t>
   </si>
   <si>
-    <t>SM Punta Norte</t>
-  </si>
-  <si>
-    <t>SM Punto La Victoria</t>
-  </si>
-  <si>
-    <t>SM Queretaro</t>
-  </si>
-  <si>
-    <t>SM Reforma 222</t>
-  </si>
-  <si>
     <t>San Luis Potosí</t>
   </si>
   <si>
-    <t>SM In The Park SLP</t>
-  </si>
-  <si>
-    <t>SM San Pedro Mty</t>
-  </si>
-  <si>
-    <t>SM Santa Fe</t>
-  </si>
-  <si>
-    <t>SM Toreo</t>
-  </si>
-  <si>
     <t>Chiapas</t>
   </si>
   <si>
@@ -437,36 +317,12 @@
     <t>Sur</t>
   </si>
   <si>
-    <t>SM Fashion Mall Tuxtla</t>
-  </si>
-  <si>
-    <t>SM Universidad</t>
-  </si>
-  <si>
-    <t>SM Vallejo</t>
-  </si>
-  <si>
-    <t>SM Veracruz</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>SM Arcos B</t>
-  </si>
-  <si>
     <t>SMM</t>
   </si>
   <si>
     <t>SMK</t>
   </si>
   <si>
-    <t>X01</t>
-  </si>
-  <si>
     <t>X62</t>
   </si>
   <si>
@@ -476,45 +332,9 @@
     <t>León</t>
   </si>
   <si>
-    <t>X02</t>
-  </si>
-  <si>
-    <t>X03</t>
-  </si>
-  <si>
-    <t>X04</t>
-  </si>
-  <si>
-    <t>X05</t>
-  </si>
-  <si>
-    <t>SM Plaza Mayor Leon</t>
-  </si>
-  <si>
     <t>Karina Ambriz</t>
   </si>
   <si>
-    <t>Geraldine A</t>
-  </si>
-  <si>
-    <t>SM Corporativo X01</t>
-  </si>
-  <si>
-    <t>SM Corporativo X02</t>
-  </si>
-  <si>
-    <t>SM Corporativo X03</t>
-  </si>
-  <si>
-    <t>SM Corporativo X04</t>
-  </si>
-  <si>
-    <t>SM Corporativo X05</t>
-  </si>
-  <si>
-    <t>SM Corporativo X10</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -533,52 +353,139 @@
     <t>X63</t>
   </si>
   <si>
-    <t>SM Corporativo X17</t>
-  </si>
-  <si>
-    <t>XRR-ECH</t>
-  </si>
-  <si>
-    <t>Tepozotlán</t>
-  </si>
-  <si>
-    <t>Edo. Mex.</t>
-  </si>
-  <si>
-    <t>SteveMadden.com</t>
-  </si>
-  <si>
-    <t>CC perteneciente a SM Acapulco</t>
-  </si>
-  <si>
-    <t>Temporal</t>
-  </si>
-  <si>
-    <t>SM Forum Tlaquepaque</t>
-  </si>
-  <si>
-    <t>X64</t>
-  </si>
-  <si>
-    <t>Opening 1</t>
-  </si>
-  <si>
-    <t>X65</t>
-  </si>
-  <si>
-    <t>Opening 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM Satelite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SM Paseo Queretaro </t>
-  </si>
-  <si>
     <t>Martha Contreras</t>
   </si>
   <si>
     <t>STORE</t>
+  </si>
+  <si>
+    <t>SM PUNTA NORTE</t>
+  </si>
+  <si>
+    <t>SM ANTARA</t>
+  </si>
+  <si>
+    <t>SM GALERIAS INSURGENTES</t>
+  </si>
+  <si>
+    <t>SM ANDARES</t>
+  </si>
+  <si>
+    <t>SM PUEBLA</t>
+  </si>
+  <si>
+    <t>SM INTERLOMAS</t>
+  </si>
+  <si>
+    <t>SM SANTA FE</t>
+  </si>
+  <si>
+    <t>SM SAN PEDRO MTY</t>
+  </si>
+  <si>
+    <t>SM VERACRUZ</t>
+  </si>
+  <si>
+    <t>SM GALERIAS GUADALAJARA</t>
+  </si>
+  <si>
+    <t>SM TOREO</t>
+  </si>
+  <si>
+    <t>SM UNIVERSIDAD</t>
+  </si>
+  <si>
+    <t>SM QUERETARO</t>
+  </si>
+  <si>
+    <t>SM CULIACAN</t>
+  </si>
+  <si>
+    <t>SM SATELITE</t>
+  </si>
+  <si>
+    <t>SM ANDAMAR</t>
+  </si>
+  <si>
+    <t>SM PLAYA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>SM OASIS</t>
+  </si>
+  <si>
+    <t>SM REFORMA 222</t>
+  </si>
+  <si>
+    <t>SM VALLEJO</t>
+  </si>
+  <si>
+    <t>SM DELTA</t>
+  </si>
+  <si>
+    <t>SM SAN AGUSTIN</t>
+  </si>
+  <si>
+    <t>SM PARQUE PUEBLA</t>
+  </si>
+  <si>
+    <t>SM PASEO QUERETARO</t>
+  </si>
+  <si>
+    <t>SM PUNTO LA VICTORIA</t>
+  </si>
+  <si>
+    <t>SM PUERTO CANCUN</t>
+  </si>
+  <si>
+    <t>SM MERIDA</t>
+  </si>
+  <si>
+    <t>SM METEPEC</t>
+  </si>
+  <si>
+    <t>SM ARTZ PEDREGAL</t>
+  </si>
+  <si>
+    <t>SM MITIKAH</t>
+  </si>
+  <si>
+    <t>SM MIDTOWN</t>
+  </si>
+  <si>
+    <t>SM LA PERLA</t>
+  </si>
+  <si>
+    <t>SM PERISUR</t>
+  </si>
+  <si>
+    <t>SM SANTA ANITA</t>
+  </si>
+  <si>
+    <t>SM GALERIAS MONTERREY</t>
+  </si>
+  <si>
+    <t>SM MAZATLAN</t>
+  </si>
+  <si>
+    <t>SM PENINSULA</t>
+  </si>
+  <si>
+    <t>SM LERMA</t>
+  </si>
+  <si>
+    <t>SM TUXTLA</t>
+  </si>
+  <si>
+    <t>SM VALLARTA</t>
+  </si>
+  <si>
+    <t>SM SAN LUIS</t>
+  </si>
+  <si>
+    <t>SM LEON</t>
+  </si>
+  <si>
+    <t>SM TLAQUEPAQUE</t>
   </si>
 </sst>
 </file>
@@ -615,18 +522,12 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -651,13 +552,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +608,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C871FC8-910D-44E1-B261-DFD3A4981603}" name="Stores" displayName="Stores" ref="A1:L56" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C871FC8-910D-44E1-B261-DFD3A4981603}" name="Stores" displayName="Stores" ref="A1:L44" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{0B7E861C-5D06-4310-A47F-EED6236155D7}" name="STORE"/>
     <tableColumn id="2" xr3:uid="{DC456E5C-0163-4854-8C7C-E4F66BCF4E8D}" name="Estado"/>
@@ -1024,11 +924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D05393B-7056-4B22-9E59-528B4C6B8D19}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1046,7 +946,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1073,27 +973,27 @@
         <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
@@ -1102,36 +1002,36 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
+      </c>
+      <c r="J2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
         <v>54</v>
@@ -1140,36 +1040,36 @@
         <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>54</v>
@@ -1178,36 +1078,36 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>158</v>
+        <v>97</v>
+      </c>
+      <c r="J4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" t="s">
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -1216,36 +1116,36 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>158</v>
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
         <v>54</v>
@@ -1254,36 +1154,36 @@
         <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>151</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>158</v>
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6" t="s">
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
@@ -1292,134 +1192,136 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="5"/>
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1427,51 +1329,51 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>54</v>
@@ -1480,36 +1382,36 @@
         <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>54</v>
@@ -1518,1648 +1420,1198 @@
         <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" t="s">
-        <v>178</v>
-      </c>
       <c r="J26" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J27" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
         <v>134</v>
       </c>
       <c r="I30" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="K30" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s">
-        <v>160</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J32" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="J33" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="J34" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J35" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="J39" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" t="s">
+        <v>97</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" t="s">
         <v>100</v>
       </c>
-      <c r="I40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" t="s">
-        <v>159</v>
-      </c>
-      <c r="K40" t="s">
-        <v>159</v>
-      </c>
       <c r="L40" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="K41" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="I42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J42" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="H43" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" t="s">
-        <v>159</v>
-      </c>
-      <c r="K43" t="s">
-        <v>159</v>
+        <v>9</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="L43" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="I44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>158</v>
-      </c>
-      <c r="K44" t="s">
-        <v>158</v>
-      </c>
-      <c r="L44" t="s">
-        <v>158</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" t="s">
-        <v>159</v>
-      </c>
-      <c r="L45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" t="s">
-        <v>158</v>
-      </c>
-      <c r="K46" t="s">
-        <v>158</v>
-      </c>
-      <c r="L46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" t="s">
-        <v>60</v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
-        <v>159</v>
-      </c>
-      <c r="K47" t="s">
-        <v>160</v>
-      </c>
-      <c r="L47" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H48" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" t="s">
-        <v>178</v>
-      </c>
-      <c r="J48" t="s">
-        <v>158</v>
-      </c>
-      <c r="K48" t="s">
-        <v>158</v>
-      </c>
-      <c r="L48" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" t="s">
-        <v>150</v>
-      </c>
-      <c r="J49" t="s">
-        <v>159</v>
-      </c>
-      <c r="K49" t="s">
-        <v>160</v>
-      </c>
-      <c r="L49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" t="s">
-        <v>71</v>
-      </c>
-      <c r="I50" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>158</v>
-      </c>
-      <c r="K50" t="s">
-        <v>158</v>
-      </c>
-      <c r="L50" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>158</v>
-      </c>
-      <c r="K51" t="s">
-        <v>158</v>
-      </c>
-      <c r="L51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" t="s">
-        <v>149</v>
-      </c>
-      <c r="I52" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
-      <c r="H53" t="s">
-        <v>171</v>
-      </c>
-      <c r="I53" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>168</v>
-      </c>
-      <c r="I54" t="s">
-        <v>151</v>
-      </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" t="s">
-        <v>68</v>
-      </c>
-      <c r="H55" t="s">
-        <v>173</v>
-      </c>
-      <c r="I55" t="s">
-        <v>151</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>174</v>
-      </c>
-      <c r="B56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" t="s">
-        <v>54</v>
-      </c>
-      <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
-      <c r="H56" t="s">
-        <v>175</v>
-      </c>
-      <c r="I56" t="s">
-        <v>151</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A45" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
